--- a/outputs/ML_Results/carown_LR_new/Berlin.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Berlin.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ6" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ21" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ0" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ4" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ17" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ8" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ6" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ13" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ14" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.591302257333765</v>
+        <v>-2.347630633838233</v>
       </c>
       <c r="C2" t="n">
-        <v>2.78469584189735e-13</v>
+        <v>2.253160068368274e-11</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2332999678705955</v>
+        <v>0.3049487771112851</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01489338066722898</v>
+        <v>0.001264372229884608</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.158082008356731</v>
+        <v>-1.172938870120358</v>
       </c>
       <c r="C4" t="n">
-        <v>8.202662361030287e-48</v>
+        <v>1.221566593141254e-50</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5932667029275024</v>
+        <v>-0.6486963686323998</v>
       </c>
       <c r="C5" t="n">
-        <v>7.944311224797881e-13</v>
+        <v>2.695024072588398e-15</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1171037663511636</v>
+        <v>-0.1735228028461475</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3114024227157146</v>
+        <v>0.1279882357148697</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0436040307520308</v>
+        <v>-0.00403307079771689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3506977393129943</v>
+        <v>0.929191606611471</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003975054166810304</v>
+        <v>0.0003907129669313503</v>
       </c>
       <c r="C8" t="n">
-        <v>1.060582370650119e-95</v>
+        <v>6.272598098759347e-94</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02228296209355185</v>
+        <v>0.02302403602954294</v>
       </c>
       <c r="C9" t="n">
-        <v>3.185470210955524e-31</v>
+        <v>1.621196583402276e-33</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1872301290047294</v>
+        <v>-0.2099229402908926</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003907504206293252</v>
+        <v>6.399015681899979e-05</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4403288309998782</v>
+        <v>0.4289503967041913</v>
       </c>
       <c r="C11" t="n">
-        <v>8.89672676145709e-08</v>
+        <v>1.489479108044968e-07</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1602489257741039</v>
+        <v>0.1049926961673558</v>
       </c>
       <c r="C12" t="n">
-        <v>0.114333536121016</v>
+        <v>0.2967591168871817</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.4439358616692e-05</v>
+        <v>-8.01229001415628e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.446400450503821e-29</v>
+        <v>5.279450309125145e-27</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.928645511218187e-08</v>
+        <v>2.044178580688943e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09435709771466777</v>
+        <v>0.07513321681877699</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01377157753203457</v>
+        <v>0.01355994629773822</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3964462589498143</v>
+        <v>0.4058282752137726</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0781258133269485</v>
+        <v>0.08184466571822478</v>
       </c>
       <c r="C16" t="n">
-        <v>2.407437682672536e-16</v>
+        <v>6.985402542224218e-18</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2153283654386738</v>
+        <v>-0.3449750792043007</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6046745465166787</v>
+        <v>0.4016901541326746</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003609834083572068</v>
+        <v>0.001690300277429843</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2291232925227598</v>
+        <v>0.5718609876947012</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003491667807444005</v>
+        <v>0.002841080668731759</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02988336821665044</v>
+        <v>0.07449178260124771</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.159887500321845</v>
+        <v>1.020193652245862</v>
       </c>
       <c r="C20" t="n">
-        <v>5.097261286489055e-10</v>
+        <v>3.62791245780785e-08</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.5339313720895787</v>
+        <v>-0.5640270728237616</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0517023945646353</v>
+        <v>0.03937258802214075</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-5.11526553590263e-05</v>
+        <v>-4.208248760651758e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03956732438757922</v>
+        <v>0.09159914771332647</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.404582795220596</v>
+        <v>-2.784347290770275</v>
       </c>
       <c r="C2" t="n">
-        <v>9.306864880633472e-12</v>
+        <v>4.671575743921342e-15</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1827762171051372</v>
+        <v>0.2145687814848711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05470956758063555</v>
+        <v>0.02444604083458893</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.110600734730014</v>
+        <v>-1.136572926476229</v>
       </c>
       <c r="C4" t="n">
-        <v>2.083068415257262e-44</v>
+        <v>1.095651236244258e-46</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5723362982279101</v>
+        <v>-0.594313293675976</v>
       </c>
       <c r="C5" t="n">
-        <v>4.271293569491686e-12</v>
+        <v>7.186757582883979e-13</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2051282981886305</v>
+        <v>-0.25613951591601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07241046376423894</v>
+        <v>0.0229357909184481</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0652233891248858</v>
+        <v>0.05991184728650848</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1577353503728682</v>
+        <v>0.1941197031927953</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003996881420856707</v>
+        <v>0.000382923175597541</v>
       </c>
       <c r="C8" t="n">
-        <v>3.691159455474362e-97</v>
+        <v>3.220878614685919e-90</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02354543597784124</v>
+        <v>0.02121240716922067</v>
       </c>
       <c r="C9" t="n">
-        <v>1.342628133239938e-34</v>
+        <v>1.185346140016819e-28</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1814513576068504</v>
+        <v>-0.184003585022272</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005840492861190871</v>
+        <v>0.0004958865394914356</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4152418511559448</v>
+        <v>0.5238279967247901</v>
       </c>
       <c r="C11" t="n">
-        <v>5.400160809591567e-07</v>
+        <v>2.082292856483105e-10</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.120169491813146</v>
+        <v>0.2570436515713918</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2385609423967724</v>
+        <v>0.01126932284677885</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.860007679131038e-05</v>
+        <v>-8.482645132058989e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.326331147891659e-32</v>
+        <v>4.943219187888297e-30</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.452053594727588e-08</v>
+        <v>2.269824685082985e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1993119480851167</v>
+        <v>0.04575980774497897</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01025899433101874</v>
+        <v>0.02308702306181987</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5317223708214207</v>
+        <v>0.1608093901986599</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08283825300367989</v>
+        <v>0.08890028994088815</v>
       </c>
       <c r="C16" t="n">
-        <v>3.719740446229816e-18</v>
+        <v>1.338000143597711e-20</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.04760503910119922</v>
+        <v>-0.06600562868992298</v>
       </c>
       <c r="C17" t="n">
-        <v>0.909182888534747</v>
+        <v>0.8741923093421675</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001666459427448618</v>
+        <v>0.002202401057357289</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5792348758254506</v>
+        <v>0.4644973752844533</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001532245424310413</v>
+        <v>0.003278247395107429</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3316717508524186</v>
+        <v>0.04090121419303999</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.182128378772544</v>
+        <v>1.303444554382339</v>
       </c>
       <c r="C20" t="n">
-        <v>2.716767224875481e-10</v>
+        <v>3.434962781030887e-12</v>
       </c>
     </row>
     <row r="21">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.6282804177639257</v>
+        <v>-0.5117673571537499</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02212556893508492</v>
+        <v>0.06191005001871586</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.218265630261281e-05</v>
+        <v>-3.239350572336055e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1933259733331618</v>
+        <v>0.1942383168610557</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.506368923234824</v>
+        <v>-2.672091688597922</v>
       </c>
       <c r="C2" t="n">
-        <v>1.548564430246024e-12</v>
+        <v>3.591043151602991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2043110719091404</v>
+        <v>0.1389796972545804</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03290086202228429</v>
+        <v>0.1466517596906381</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.117083798870099</v>
+        <v>-1.074721368549029</v>
       </c>
       <c r="C4" t="n">
-        <v>6.445235947084834e-45</v>
+        <v>2.946060132793626e-41</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5938318225231463</v>
+        <v>-0.5117388292287721</v>
       </c>
       <c r="C5" t="n">
-        <v>6.9308715615553e-13</v>
+        <v>7.176670370029075e-10</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2446088759607362</v>
+        <v>-0.2491353041661538</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03139064091318799</v>
+        <v>0.03061116236126373</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06271352921196545</v>
+        <v>0.09932960018708693</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1798622303092354</v>
+        <v>0.03488051809748807</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003814541053956776</v>
+        <v>0.0003877253108649438</v>
       </c>
       <c r="C8" t="n">
-        <v>5.855451741018828e-90</v>
+        <v>2.799573711584471e-92</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02369918315297949</v>
+        <v>0.02432304123692446</v>
       </c>
       <c r="C9" t="n">
-        <v>5.119223763024481e-35</v>
+        <v>5.820182730555632e-37</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.201138346827524</v>
+        <v>-0.1902839950122718</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001277369361942704</v>
+        <v>0.0003035959436321923</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.412912880666057</v>
+        <v>0.4632930239337423</v>
       </c>
       <c r="C11" t="n">
-        <v>4.22278204916339e-07</v>
+        <v>2.171277524254403e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06608015896153013</v>
+        <v>0.1366272845951683</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5114367573425498</v>
+        <v>0.177047581999938</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.194931656297107e-05</v>
+        <v>-8.00772367826948e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>3.410923522462961e-28</v>
+        <v>3.95187370567871e-27</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.795068685413065e-08</v>
+        <v>1.453717408082159e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1132984684167806</v>
+        <v>0.1989789399636924</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01253043065402284</v>
+        <v>0.008974439610309309</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4399799938741789</v>
+        <v>0.5815379702977667</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08466176220061641</v>
+        <v>0.08635516241417346</v>
       </c>
       <c r="C16" t="n">
-        <v>5.580992424874718e-19</v>
+        <v>9.731577701144553e-20</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3179794593184782</v>
+        <v>-0.1944458819879197</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4419675471081741</v>
+        <v>0.6374174797077131</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.002824810146440635</v>
+        <v>0.00494765169867968</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3459837400227668</v>
+        <v>0.1000991148565274</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002555156055989939</v>
+        <v>0.001986245933592791</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1122084155044824</v>
+        <v>0.2097639821273771</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.062687091477818</v>
+        <v>0.9434373623662308</v>
       </c>
       <c r="C20" t="n">
-        <v>1.147798868832927e-08</v>
+        <v>3.621356006582091e-07</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.5459762493986452</v>
+        <v>-0.5072336710599511</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04643518983447129</v>
+        <v>0.06229880860207067</v>
       </c>
     </row>
     <row r="22">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.808459852143207e-05</v>
+        <v>-4.22026811728017e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1231492995634749</v>
+        <v>0.08776873962300027</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.470167935229824</v>
+        <v>-2.406347158938477</v>
       </c>
       <c r="C2" t="n">
-        <v>1.755159992170933e-12</v>
+        <v>8.861705531576128e-12</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2244721899682828</v>
+        <v>0.2841530305726939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01876490126502418</v>
+        <v>0.002970126643913083</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.148991785557804</v>
+        <v>-1.183340502479084</v>
       </c>
       <c r="C4" t="n">
-        <v>7.365590192815664e-48</v>
+        <v>4.456113884170237e-50</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6338573130320512</v>
+        <v>-0.6113066866944664</v>
       </c>
       <c r="C5" t="n">
-        <v>1.781252864595993e-14</v>
+        <v>1.463518544897602e-13</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1940549739164259</v>
+        <v>-0.153736629949136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08297975359932785</v>
+        <v>0.1740583213174783</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03873244866654307</v>
+        <v>0.0216633587708043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.402419249459363</v>
+        <v>0.6387582334052148</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003840506371292006</v>
+        <v>0.0003981633578016227</v>
       </c>
       <c r="C8" t="n">
-        <v>5.763593679120453e-91</v>
+        <v>2.144062404581136e-95</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02250822498899768</v>
+        <v>0.02260157813608344</v>
       </c>
       <c r="C9" t="n">
-        <v>6.257596459540243e-32</v>
+        <v>3.599198929669487e-32</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2249125190931493</v>
+        <v>-0.2086950142586623</v>
       </c>
       <c r="C10" t="n">
-        <v>1.885259262032642e-05</v>
+        <v>7.60442851317973e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4895436525396978</v>
+        <v>0.4396854670274944</v>
       </c>
       <c r="C11" t="n">
-        <v>2.387735652916217e-09</v>
+        <v>9.950438424109896e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1454256907052273</v>
+        <v>0.1860081740808882</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1514218560620099</v>
+        <v>0.06674221753848464</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.111926589960873e-05</v>
+        <v>-7.795889582512911e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.355870401442586e-27</v>
+        <v>2.34812940813298e-25</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.893980322333435e-08</v>
+        <v>1.102680908459344e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09480968013149295</v>
+        <v>0.3359213818055008</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01397216561247165</v>
+        <v>0.02240448971773311</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3925172610937111</v>
+        <v>0.1725515342232303</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0862992146719206</v>
+        <v>0.08580567516231241</v>
       </c>
       <c r="C16" t="n">
-        <v>1.488127765892642e-19</v>
+        <v>2.42614974834419e-19</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2150541057929739</v>
+        <v>-0.1681269062570054</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6054089843773067</v>
+        <v>0.6869925791712164</v>
       </c>
     </row>
     <row r="18">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001961221522917924</v>
+        <v>0.001781912022598521</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5129824049931735</v>
+        <v>0.5543159518891994</v>
       </c>
     </row>
     <row r="19">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002330115298765399</v>
+        <v>0.001844179523046553</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1383513698386541</v>
+        <v>0.2454983171527337</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.124761483645918</v>
+        <v>1.069837564478257</v>
       </c>
       <c r="C20" t="n">
-        <v>1.449921812155564e-09</v>
+        <v>9.559930866531416e-09</v>
       </c>
     </row>
     <row r="21">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.5109606627630949</v>
+        <v>-0.4742666625966806</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06082061928514695</v>
+        <v>0.08490525982479534</v>
       </c>
     </row>
     <row r="22">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.548884960156108e-05</v>
+        <v>-3.009629488133453e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1545897225603252</v>
+        <v>0.2226647686191613</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.734064902434048</v>
+        <v>-2.736636311491266</v>
       </c>
       <c r="C2" t="n">
-        <v>1.190721338206095e-14</v>
+        <v>1.991264667902995e-14</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2284058654461591</v>
+        <v>0.1795982251623859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01575759942683813</v>
+        <v>0.05915690624585014</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.140474125161858</v>
+        <v>-1.147723417702823</v>
       </c>
       <c r="C4" t="n">
-        <v>3.168098316994747e-47</v>
+        <v>2.141233338078898e-47</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6050409707818355</v>
+        <v>-0.6209104842967512</v>
       </c>
       <c r="C5" t="n">
-        <v>2.131956012885865e-13</v>
+        <v>5.338055961543913e-14</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1493860349675913</v>
+        <v>-0.2205479613906336</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1878769861079184</v>
+        <v>0.05032708024932863</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04596025919879709</v>
+        <v>0.05432074698875181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.314688870744029</v>
+        <v>0.2385572140016772</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003853974054595907</v>
+        <v>0.0003803900919794982</v>
       </c>
       <c r="C8" t="n">
-        <v>8.184718257369158e-92</v>
+        <v>1.066121589320347e-89</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02263178779045676</v>
+        <v>0.02207666006077516</v>
       </c>
       <c r="C9" t="n">
-        <v>2.278264153064887e-32</v>
+        <v>1.994949488448099e-30</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1949423294384021</v>
+        <v>-0.2007828485602792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002158943462680191</v>
+        <v>0.0001335923840122278</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4791340075369058</v>
+        <v>0.4421665065074717</v>
       </c>
       <c r="C11" t="n">
-        <v>4.815299689929135e-09</v>
+        <v>8.825982527311316e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1949297597285996</v>
+        <v>0.1174354504323494</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0533526222635937</v>
+        <v>0.2496145453698149</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.637571103657878e-05</v>
+        <v>-8.960507238623812e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>5.061068955398544e-31</v>
+        <v>4.63079805062819e-33</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.575163930844186e-08</v>
+        <v>2.735597960085316e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02400216382432258</v>
+        <v>0.01670510454064589</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01493000177670907</v>
+        <v>0.01630427185088525</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3605996766221572</v>
+        <v>0.3162594383398818</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08608044603104183</v>
+        <v>0.08202044636566025</v>
       </c>
       <c r="C16" t="n">
-        <v>1.402481057993991e-19</v>
+        <v>7.27394752208232e-18</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.269169140070009</v>
+        <v>-0.5051213667336528</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5158149933913996</v>
+        <v>0.2221611740236751</v>
       </c>
     </row>
     <row r="18">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003826349087727068</v>
+        <v>0.003570379881941403</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2031688664967268</v>
+        <v>0.2353842608524706</v>
       </c>
     </row>
     <row r="19">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003503158434257826</v>
+        <v>0.004596107211513236</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02985048879992361</v>
+        <v>0.005117123910518494</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.128425326358395</v>
+        <v>1.201359761726565</v>
       </c>
       <c r="C20" t="n">
-        <v>1.470679783292533e-09</v>
+        <v>1.598487287459408e-10</v>
       </c>
     </row>
     <row r="21">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.6084436100711289</v>
+        <v>-0.5996470744006915</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02643963751792499</v>
+        <v>0.02863455066531647</v>
       </c>
     </row>
     <row r="22">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.349754310130495e-05</v>
+        <v>-3.349237587109006e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1751079866475821</v>
+        <v>0.1729855219831264</v>
       </c>
     </row>
   </sheetData>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.482328350926154</v>
+        <v>-2.611080193854984</v>
       </c>
       <c r="C2" t="n">
-        <v>1.689818305806517e-12</v>
+        <v>1.322193185972836e-13</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2642480893247345</v>
+        <v>0.2074209984487073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005308187620779661</v>
+        <v>0.02976977947393375</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.191237740792917</v>
+        <v>-1.152835648221654</v>
       </c>
       <c r="C4" t="n">
-        <v>2.087192186894315e-51</v>
+        <v>9.930075948017037e-48</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6702465792326036</v>
+        <v>-0.5912300809037061</v>
       </c>
       <c r="C5" t="n">
-        <v>4.53028961514425e-16</v>
+        <v>7.462268784799298e-13</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2514414722146838</v>
+        <v>-0.1445591126262009</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02630621104391086</v>
+        <v>0.2041306980663218</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01588553169217913</v>
+        <v>0.04834298699457496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7286277668909004</v>
+        <v>0.2987768789362298</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003807504616307151</v>
+        <v>0.0003937273469477537</v>
       </c>
       <c r="C8" t="n">
-        <v>1.672785393322205e-89</v>
+        <v>1.194189208680096e-95</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02335801449302181</v>
+        <v>0.02267624492504789</v>
       </c>
       <c r="C9" t="n">
-        <v>3.247886770761046e-34</v>
+        <v>2.210926057972045e-32</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1739522857836776</v>
+        <v>-0.1894227233409341</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009292946603490805</v>
+        <v>0.0003079754613876842</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4619145970417576</v>
+        <v>0.432482625887507</v>
       </c>
       <c r="C11" t="n">
-        <v>3.070854889848156e-08</v>
+        <v>1.855031761155656e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1440423900911502</v>
+        <v>0.1320276937049422</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1598737143143945</v>
+        <v>0.1963758619997602</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.630863891829906e-05</v>
+        <v>-8.085532310991119e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>7.097684896204494e-31</v>
+        <v>1.114481769803092e-27</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.948509819890906e-08</v>
+        <v>1.992636061569999e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08797781807651862</v>
+        <v>0.07885566065608125</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01530623188437525</v>
+        <v>0.01467557951099704</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3436747187086305</v>
+        <v>0.3639252551618383</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0785904364140687</v>
+        <v>0.08373765627919173</v>
       </c>
       <c r="C16" t="n">
-        <v>9.115767589420483e-17</v>
+        <v>1.007813619165769e-18</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.310135971307454</v>
+        <v>-0.1537415339168503</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4512185452001304</v>
+        <v>0.7096800087299429</v>
       </c>
     </row>
     <row r="18">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003023970836857423</v>
+        <v>0.003039438313212601</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3130971606103079</v>
+        <v>0.3101218662446776</v>
       </c>
     </row>
     <row r="19">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002941153099806173</v>
+        <v>0.002907129393925452</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06284751768204307</v>
+        <v>0.06837783654134529</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.169884392577725</v>
+        <v>1.101703185691312</v>
       </c>
       <c r="C20" t="n">
-        <v>3.270614872205674e-10</v>
+        <v>2.72003602631348e-09</v>
       </c>
     </row>
     <row r="21">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.4841242785167165</v>
+        <v>-0.4910052048716299</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07784745776717517</v>
+        <v>0.07328565459140715</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-4.389166044445554e-05</v>
+        <v>-3.876266707650708e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07612283616324315</v>
+        <v>0.1164164899156138</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.466640237078897</v>
+        <v>-2.517694716001823</v>
       </c>
       <c r="C2" t="n">
-        <v>2.836641594426701e-12</v>
+        <v>8.356541427420631e-13</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2373560782555105</v>
+        <v>0.1843809038525137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01339481014874221</v>
+        <v>0.05409671679676763</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.124846121547965</v>
+        <v>-1.138430775534172</v>
       </c>
       <c r="C4" t="n">
-        <v>2.93698610497867e-45</v>
+        <v>2.152788307537234e-46</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5748597026792703</v>
+        <v>-0.6095700707452877</v>
       </c>
       <c r="C5" t="n">
-        <v>4.221205319885123e-12</v>
+        <v>2.155773108455283e-13</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1899032153902683</v>
+        <v>-0.2081949470724107</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0919706971062218</v>
+        <v>0.06929186506858007</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06422436581519748</v>
+        <v>0.07625730943742504</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1688294163214163</v>
+        <v>0.1034280112596334</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003872210176674202</v>
+        <v>0.0003788217087621808</v>
       </c>
       <c r="C8" t="n">
-        <v>3.34863211171975e-92</v>
+        <v>5.853692784532121e-89</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02199116780738569</v>
+        <v>0.0226906758665781</v>
       </c>
       <c r="C9" t="n">
-        <v>1.778138493542666e-30</v>
+        <v>2.595306940232198e-32</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2291234006026737</v>
+        <v>-0.2128392580853803</v>
       </c>
       <c r="C10" t="n">
-        <v>1.27609322983271e-05</v>
+        <v>5.351979804790006e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4265123868139781</v>
+        <v>0.4292826538754849</v>
       </c>
       <c r="C11" t="n">
-        <v>2.840954471160766e-07</v>
+        <v>1.775051080713654e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1664583794791026</v>
+        <v>0.1117002590848628</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1027314504708152</v>
+        <v>0.271332740788595</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.723954177813915e-05</v>
+        <v>-8.447195236745344e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>2.754912538987961e-25</v>
+        <v>8.500093104258061e-30</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.157320052169362e-08</v>
+        <v>1.411078175504857e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3041132493126648</v>
+        <v>0.2185396819847405</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02356142807098655</v>
+        <v>0.007184976359301257</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1498663830414463</v>
+        <v>0.6572862834425715</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08192828860894549</v>
+        <v>0.07763616337891532</v>
       </c>
       <c r="C16" t="n">
-        <v>6.864192423175503e-18</v>
+        <v>2.428769248506068e-16</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.008745857056604817</v>
+        <v>0.07078140129418881</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9831724832467578</v>
+        <v>0.8648428854321656</v>
       </c>
     </row>
     <row r="18">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0006895776739294118</v>
+        <v>0.003272539821033045</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8183330997216973</v>
+        <v>0.2743608675042618</v>
       </c>
     </row>
     <row r="19">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002773712816271224</v>
+        <v>0.003168747285997595</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08042813474938605</v>
+        <v>0.04451393688071123</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.995101158504469</v>
+        <v>1.184402773941987</v>
       </c>
       <c r="C20" t="n">
-        <v>7.293950260445664e-08</v>
+        <v>2.183758615449037e-10</v>
       </c>
     </row>
     <row r="21">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.4536015341855951</v>
+        <v>-0.5438077548949909</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09628452918431298</v>
+        <v>0.0466585676303628</v>
       </c>
     </row>
     <row r="22">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2.780796060589189e-05</v>
+        <v>-4.707134842277157e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2610441818629986</v>
+        <v>0.05727083105056623</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.683163895581855</v>
+        <v>-2.362072203777437</v>
       </c>
       <c r="C2" t="n">
-        <v>3.25060047599676e-14</v>
+        <v>1.274073797155808e-11</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2147877138308451</v>
+        <v>0.2475236440583245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02411981935572844</v>
+        <v>0.009271455271937153</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.134931371605127</v>
+        <v>-1.145288682899481</v>
       </c>
       <c r="C4" t="n">
-        <v>1.57702203750392e-46</v>
+        <v>1.476042001346669e-47</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6059917148085627</v>
+        <v>-0.5916609945503103</v>
       </c>
       <c r="C5" t="n">
-        <v>1.963676765135656e-13</v>
+        <v>6.095304692368172e-13</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2071254034200704</v>
+        <v>-0.1318091075211345</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07125985815400404</v>
+        <v>0.2440617993199393</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04789373894705844</v>
+        <v>0.03691607482066203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3000442921418492</v>
+        <v>0.423601912868293</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003958793681433235</v>
+        <v>0.0003948891986855107</v>
       </c>
       <c r="C8" t="n">
-        <v>4.122343827682976e-96</v>
+        <v>3.402747943498677e-95</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02391688513627161</v>
+        <v>0.02391307084206541</v>
       </c>
       <c r="C9" t="n">
-        <v>1.305572622827347e-35</v>
+        <v>9.690509862296186e-36</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2050933276190187</v>
+        <v>-0.1955686010613041</v>
       </c>
       <c r="C10" t="n">
-        <v>9.846071709896352e-05</v>
+        <v>0.0001983131536484248</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4088654991952155</v>
+        <v>0.3789752276942041</v>
       </c>
       <c r="C11" t="n">
-        <v>8.54560234901735e-07</v>
+        <v>4.149995940095885e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08282667324515973</v>
+        <v>0.05694735207178196</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4187205392226417</v>
+        <v>0.57568272620797</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.912288445595211e-05</v>
+        <v>-8.176976681052966e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>2.430828929055803e-26</v>
+        <v>3.726310672657367e-28</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.584710757041088e-08</v>
+        <v>1.358557374059802e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1662724862715022</v>
+        <v>0.2319354764674618</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01324038449356512</v>
+        <v>0.00923678533694103</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4166004636977393</v>
+        <v>0.5668589696961641</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08430605665396576</v>
+        <v>0.07823652980607802</v>
       </c>
       <c r="C16" t="n">
-        <v>7.193259156891543e-19</v>
+        <v>1.302677956927041e-16</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1166369022663462</v>
+        <v>-0.2352543329151085</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7778539604707557</v>
+        <v>0.569372391778695</v>
       </c>
     </row>
     <row r="18">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003349253182742547</v>
+        <v>0.001984636674523983</v>
       </c>
       <c r="C18" t="n">
-        <v>0.26434112654208</v>
+        <v>0.5067835306480298</v>
       </c>
     </row>
     <row r="19">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003403464690426581</v>
+        <v>0.002250933196397715</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03416760374806137</v>
+        <v>0.1496115873461273</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.039212690447655</v>
+        <v>1.136512154202469</v>
       </c>
       <c r="C20" t="n">
-        <v>2.566725036780408e-08</v>
+        <v>9.236485515162034e-10</v>
       </c>
     </row>
     <row r="21">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.576640360080469</v>
+        <v>-0.5441344733765644</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03564025958025142</v>
+        <v>0.04716696400625704</v>
       </c>
     </row>
     <row r="22">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.332583328929058e-05</v>
+        <v>-4.754431931876318e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1798664654808284</v>
+        <v>0.05648816236292639</v>
       </c>
     </row>
   </sheetData>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.439955745624347</v>
+        <v>-2.350224540254815</v>
       </c>
       <c r="C2" t="n">
-        <v>4.531478363599874e-12</v>
+        <v>3.682918283227805e-11</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1801478080800951</v>
+        <v>0.2106781986151265</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05826296575946896</v>
+        <v>0.02682813194126297</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.151199469761612</v>
+        <v>-1.124988722640136</v>
       </c>
       <c r="C4" t="n">
-        <v>5.696881798722869e-48</v>
+        <v>9.10078838900761e-46</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.552341657208407</v>
+        <v>-0.6224642695633964</v>
       </c>
       <c r="C5" t="n">
-        <v>2.13112889299115e-11</v>
+        <v>5.451276167441504e-14</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2003691032472023</v>
+        <v>-0.2191140334848895</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07711582223029957</v>
+        <v>0.05376369275348625</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05238144147954914</v>
+        <v>0.04338652435821518</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2565901964277294</v>
+        <v>0.3472534783235236</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003838691558366325</v>
+        <v>0.0003889177972150081</v>
       </c>
       <c r="C8" t="n">
-        <v>1.638043271776825e-91</v>
+        <v>1.027989673935773e-93</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02236036372760136</v>
+        <v>0.02377742782848028</v>
       </c>
       <c r="C9" t="n">
-        <v>1.329396835272131e-31</v>
+        <v>4.522706422038126e-35</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2135975221436056</v>
+        <v>-0.2186563946819869</v>
       </c>
       <c r="C10" t="n">
-        <v>4.864437809435491e-05</v>
+        <v>3.170646588726005e-05</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4535450915251947</v>
+        <v>0.4485465522692256</v>
       </c>
       <c r="C11" t="n">
-        <v>2.892493597224566e-08</v>
+        <v>5.455463569660104e-08</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1143738975159912</v>
+        <v>0.09307734557719594</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2561745387830754</v>
+        <v>0.3607523266536476</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.147165007266576e-05</v>
+        <v>-8.680608983786804e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>7.388975227390111e-28</v>
+        <v>5.391939077049051e-31</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.294081258810603e-08</v>
+        <v>2.247583073741629e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04618888035440803</v>
+        <v>0.04764302120796059</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01569994969294495</v>
+        <v>0.01830146878632439</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3341446381168613</v>
+        <v>0.2642123708315004</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3120,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08144976527245533</v>
+        <v>0.0799178260318017</v>
       </c>
       <c r="C16" t="n">
-        <v>9.262028704789049e-18</v>
+        <v>6.15714538214501e-17</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1560680639937672</v>
+        <v>-0.06567846358078092</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7051974087816493</v>
+        <v>0.8744679530296671</v>
       </c>
     </row>
     <row r="18">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003130181367132519</v>
+        <v>0.001653802519253828</v>
       </c>
       <c r="C18" t="n">
-        <v>0.297430499906069</v>
+        <v>0.5820931516343469</v>
       </c>
     </row>
     <row r="19">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002389403395438366</v>
+        <v>0.002089119998406302</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1343469154742433</v>
+        <v>0.1941241407375178</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.137975700650936</v>
+        <v>1.037949739644692</v>
       </c>
       <c r="C20" t="n">
-        <v>8.777740114772233e-10</v>
+        <v>2.463527604377194e-08</v>
       </c>
     </row>
     <row r="21">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.5048310857931647</v>
+        <v>-0.6171726778086072</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06592155368252978</v>
+        <v>0.02491137282066721</v>
       </c>
     </row>
     <row r="22">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-5.841438006123228e-05</v>
+        <v>-4.041911927008075e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0181979479836075</v>
+        <v>0.1027893865031599</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Berlin.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Berlin.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,270 +466,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.347630633838233</v>
+        <v>-3.533324052965383</v>
       </c>
       <c r="C2" t="n">
-        <v>2.253160068368274e-11</v>
+        <v>3.55514492112994e-26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3049487771112851</v>
+        <v>0.351786713859461</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001264372229884608</v>
+        <v>5.690913827445354e-53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.172938870120358</v>
+        <v>0.0004611509111203567</v>
       </c>
       <c r="C4" t="n">
-        <v>1.221566593141254e-50</v>
+        <v>5.364655872128642e-141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6486963686323998</v>
+        <v>0.02382313725717244</v>
       </c>
       <c r="C5" t="n">
-        <v>2.695024072588398e-15</v>
+        <v>3.958843329611365e-38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1735228028461475</v>
+        <v>-0.1853261271583363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1279882357148697</v>
+        <v>0.0002927061231582473</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.00403307079771689</v>
+        <v>0.3364043153678296</v>
       </c>
       <c r="C7" t="n">
-        <v>0.929191606611471</v>
+        <v>3.069978423742129e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003907129669313503</v>
+        <v>0.02224598320822329</v>
       </c>
       <c r="C8" t="n">
-        <v>6.272598098759347e-94</v>
+        <v>0.8213978430950863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02302403602954294</v>
+        <v>-5.93543268514797e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.621196583402276e-33</v>
+        <v>1.802008805113154e-26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2099229402908926</v>
+        <v>0.02087034036409348</v>
       </c>
       <c r="C10" t="n">
-        <v>6.399015681899979e-05</v>
+        <v>0.1931850355238497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4289503967041913</v>
+        <v>0.08501578559557886</v>
       </c>
       <c r="C11" t="n">
-        <v>1.489479108044968e-07</v>
+        <v>7.202611337630758e-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1049926961673558</v>
+        <v>-0.2523737541706472</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2967591168871817</v>
+        <v>0.5337288750930662</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.01229001415628e-05</v>
+        <v>0.0008121193631739517</v>
       </c>
       <c r="C13" t="n">
-        <v>5.279450309125145e-27</v>
+        <v>0.7826705616658465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.044178580688943e-08</v>
+        <v>0.002390380830052596</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07513321681877699</v>
+        <v>0.1278004437845478</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01355994629773822</v>
+        <v>0.9063054678643254</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4058282752137726</v>
+        <v>5.618524932229857e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08184466571822478</v>
+        <v>-0.2371679897050664</v>
       </c>
       <c r="C16" t="n">
-        <v>6.985402542224218e-18</v>
+        <v>0.3358345773473149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3449750792043007</v>
+        <v>-2.540090587371802e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4016901541326746</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.001690300277429843</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5718609876947012</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.002841080668731759</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.07449178260124771</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.020193652245862</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.62791245780785e-08</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.5640270728237616</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.03937258802214075</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-4.208248760651758e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.09159914771332647</v>
+        <v>0.2868032974870133</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,270 +710,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.784347290770275</v>
+        <v>-3.920373305757717</v>
       </c>
       <c r="C2" t="n">
-        <v>4.671575743921342e-15</v>
+        <v>4.251029338172172e-31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2145687814848711</v>
+        <v>0.3767817676338718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02444604083458893</v>
+        <v>2.577808783747928e-59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.136572926476229</v>
+        <v>0.0004540370783187427</v>
       </c>
       <c r="C4" t="n">
-        <v>1.095651236244258e-46</v>
+        <v>1.078642514464362e-136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.594313293675976</v>
+        <v>0.02235746387309206</v>
       </c>
       <c r="C5" t="n">
-        <v>7.186757582883979e-13</v>
+        <v>1.073681576567995e-33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.25613951591601</v>
+        <v>-0.1597660903893671</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0229357909184481</v>
+        <v>0.001919886180430425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05991184728650848</v>
+        <v>0.4290900921125082</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1941197031927953</v>
+        <v>1.451486468260504e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000382923175597541</v>
+        <v>0.1664572548437182</v>
       </c>
       <c r="C8" t="n">
-        <v>3.220878614685919e-90</v>
+        <v>0.09418815803831102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02121240716922067</v>
+        <v>-6.299249685118886e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.185346140016819e-28</v>
+        <v>4.727632505842486e-29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.184003585022272</v>
+        <v>0.03135737659792323</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004958865394914356</v>
+        <v>0.05284599924325644</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5238279967247901</v>
+        <v>0.09184634495514739</v>
       </c>
       <c r="C11" t="n">
-        <v>2.082292856483105e-10</v>
+        <v>1.082149943872433e-22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2570436515713918</v>
+        <v>-0.002442508978264108</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01126932284677885</v>
+        <v>0.9952590438182174</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.482645132058989e-05</v>
+        <v>0.001227838500611436</v>
       </c>
       <c r="C13" t="n">
-        <v>4.943219187888297e-30</v>
+        <v>0.6786960152055173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.269824685082985e-08</v>
+        <v>0.002875410576018164</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04575980774497897</v>
+        <v>0.06919116818111493</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02308702306181987</v>
+        <v>1.195584554828532</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1608093901986599</v>
+        <v>6.590702818725344e-11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08890028994088815</v>
+        <v>-0.1536252366097313</v>
       </c>
       <c r="C16" t="n">
-        <v>1.338000143597711e-20</v>
+        <v>0.5352433962755294</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06600562868992298</v>
+        <v>-1.264158372991917e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8741923093421675</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.002202401057357289</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.4644973752844533</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.003278247395107429</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.04090121419303999</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.303444554382339</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.434962781030887e-12</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.5117673571537499</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.06191005001871586</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.239350572336055e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1942383168610557</v>
+        <v>0.59716577674549</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,270 +954,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.672091688597922</v>
+        <v>-3.683890308082755</v>
       </c>
       <c r="C2" t="n">
-        <v>3.591043151602991e-14</v>
+        <v>4.381246128709178e-28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1389796972545804</v>
+        <v>0.3745568863215229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1466517596906381</v>
+        <v>1.103310673671307e-58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.074721368549029</v>
+        <v>0.0004548118203587691</v>
       </c>
       <c r="C4" t="n">
-        <v>2.946060132793626e-41</v>
+        <v>5.591304957155898e-137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5117388292287721</v>
+        <v>0.02538468725694294</v>
       </c>
       <c r="C5" t="n">
-        <v>7.176670370029075e-10</v>
+        <v>1.049571022064968e-42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2491353041661538</v>
+        <v>-0.1653606546093296</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03061116236126373</v>
+        <v>0.001299300897453104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09932960018708693</v>
+        <v>0.3679779227407804</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03488051809748807</v>
+        <v>7.100085431396329e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003877253108649438</v>
+        <v>0.04892875567495625</v>
       </c>
       <c r="C8" t="n">
-        <v>2.799573711584471e-92</v>
+        <v>0.6222616782124526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02432304123692446</v>
+        <v>-6.093822946190964e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>5.820182730555632e-37</v>
+        <v>1.053633696009847e-27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1902839950122718</v>
+        <v>0.01596779060795789</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003035959436321923</v>
+        <v>0.3196000525846181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4632930239337423</v>
+        <v>0.08969527451797561</v>
       </c>
       <c r="C11" t="n">
-        <v>2.171277524254403e-08</v>
+        <v>6.726339395002035e-22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1366272845951683</v>
+        <v>-0.1482302517915811</v>
       </c>
       <c r="C12" t="n">
-        <v>0.177047581999938</v>
+        <v>0.7156681025339529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.00772367826948e-05</v>
+        <v>0.003595470669966957</v>
       </c>
       <c r="C13" t="n">
-        <v>3.95187370567871e-27</v>
+        <v>0.2258773944789335</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.453717408082159e-08</v>
+        <v>0.001614257051039815</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1989789399636924</v>
+        <v>0.3021499626676467</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.008974439610309309</v>
+        <v>0.8536035181640825</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5815379702977667</v>
+        <v>2.630494577348794e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08635516241417346</v>
+        <v>-0.239177402771003</v>
       </c>
       <c r="C16" t="n">
-        <v>9.731577701144553e-20</v>
+        <v>0.3305297328545369</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1944458819879197</v>
+        <v>-2.81115585093782e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6374174797077131</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.00494765169867968</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1000991148565274</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.001986245933592791</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2097639821273771</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9434373623662308</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.621356006582091e-07</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.5072336710599511</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.06229880860207067</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-4.22026811728017e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.08776873962300027</v>
+        <v>0.2348989625258994</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,270 +1198,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.406347158938477</v>
+        <v>-3.561846767487866</v>
       </c>
       <c r="C2" t="n">
-        <v>8.861705531576128e-12</v>
+        <v>2.442496157832146e-26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2841530305726939</v>
+        <v>0.3683581269010507</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002970126643913083</v>
+        <v>1.213625665373624e-56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.183340502479084</v>
+        <v>0.0004684240891676795</v>
       </c>
       <c r="C4" t="n">
-        <v>4.456113884170237e-50</v>
+        <v>9.433979061752414e-143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6113066866944664</v>
+        <v>0.0233654240546107</v>
       </c>
       <c r="C5" t="n">
-        <v>1.463518544897602e-13</v>
+        <v>1.423669328923007e-36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.153736629949136</v>
+        <v>-0.1822693906681991</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1740583213174783</v>
+        <v>0.0003909593889692053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0216633587708043</v>
+        <v>0.3423466700554642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6387582334052148</v>
+        <v>2.689294736588924e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003981633578016227</v>
+        <v>0.09276172591269169</v>
       </c>
       <c r="C8" t="n">
-        <v>2.144062404581136e-95</v>
+        <v>0.3506921085708877</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02260157813608344</v>
+        <v>-6.01776127065512e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>3.599198929669487e-32</v>
+        <v>7.616074731897561e-27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2086950142586623</v>
+        <v>0.02880553654179512</v>
       </c>
       <c r="C10" t="n">
-        <v>7.60442851317973e-05</v>
+        <v>0.07476517933856736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4396854670274944</v>
+        <v>0.09044018879079835</v>
       </c>
       <c r="C11" t="n">
-        <v>9.950438424109896e-08</v>
+        <v>4.369365156828721e-22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1860081740808882</v>
+        <v>-0.07468710572110818</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06674221753848464</v>
+        <v>0.8557721134425655</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.795889582512911e-05</v>
+        <v>0.0004734255647408862</v>
       </c>
       <c r="C13" t="n">
-        <v>2.34812940813298e-25</v>
+        <v>0.8733154915766753</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.102680908459344e-08</v>
+        <v>0.001455358489850035</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3359213818055008</v>
+        <v>0.3538134979557617</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02240448971773311</v>
+        <v>0.9536234251885649</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1725515342232303</v>
+        <v>1.723093261332686e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08580567516231241</v>
+        <v>-0.245316405342397</v>
       </c>
       <c r="C16" t="n">
-        <v>2.42614974834419e-19</v>
+        <v>0.3224222894613438</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1681269062570054</v>
+        <v>-1.576589261938476e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6869925791712164</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.001781912022598521</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5543159518891994</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.001844179523046553</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2454983171527337</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.069837564478257</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9.559930866531416e-09</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.4742666625966806</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.08490525982479534</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.009629488133453e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2226647686191613</v>
+        <v>0.5047978268062427</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,270 +1442,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.736636311491266</v>
+        <v>-3.874564858569618</v>
       </c>
       <c r="C2" t="n">
-        <v>1.991264667902995e-14</v>
+        <v>4.493232141656756e-30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1795982251623859</v>
+        <v>0.3653811830738002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05915690624585014</v>
+        <v>3.131868675699649e-56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.147723417702823</v>
+        <v>0.0004519799279906286</v>
       </c>
       <c r="C4" t="n">
-        <v>2.141233338078898e-47</v>
+        <v>1.805267888325305e-136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6209104842967512</v>
+        <v>0.02320622299177092</v>
       </c>
       <c r="C5" t="n">
-        <v>5.338055961543913e-14</v>
+        <v>8.591343308083003e-36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2205479613906336</v>
+        <v>-0.1738877885218998</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05032708024932863</v>
+        <v>0.000685621874241756</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05432074698875181</v>
+        <v>0.3480682271614989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2385572140016772</v>
+        <v>2.071377042042172e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003803900919794982</v>
+        <v>0.03458514422344615</v>
       </c>
       <c r="C8" t="n">
-        <v>1.066121589320347e-89</v>
+        <v>0.72915014360485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02207666006077516</v>
+        <v>-6.561260962364481e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.994949488448099e-30</v>
+        <v>1.229667544773307e-31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2007828485602792</v>
+        <v>0.02537739493774098</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001335923840122278</v>
+        <v>0.1126460826771082</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4421665065074717</v>
+        <v>0.08532619350999464</v>
       </c>
       <c r="C11" t="n">
-        <v>8.825982527311316e-08</v>
+        <v>6.628744861092181e-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1174354504323494</v>
+        <v>-0.3698548540429065</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2496145453698149</v>
+        <v>0.3642606510892304</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.960507238623812e-05</v>
+        <v>0.002680420826398439</v>
       </c>
       <c r="C13" t="n">
-        <v>4.63079805062819e-33</v>
+        <v>0.3653293377766651</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.735597960085316e-08</v>
+        <v>0.004056590125878235</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01670510454064589</v>
+        <v>0.01214268908532688</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01630427185088525</v>
+        <v>1.077411869376586</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3162594383398818</v>
+        <v>4.262160385655645e-09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08202044636566025</v>
+        <v>-0.1938000742772091</v>
       </c>
       <c r="C16" t="n">
-        <v>7.27394752208232e-18</v>
+        <v>0.4319095940759154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.5051213667336528</v>
+        <v>-1.014725221180008e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2221611740236751</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.003570379881941403</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2353842608524706</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.004596107211513236</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.005117123910518494</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.201359761726565</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.598487287459408e-10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.5996470744006915</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.02863455066531647</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.349237587109006e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1729855219831264</v>
+        <v>0.6660888228675934</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,270 +1686,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.611080193854984</v>
+        <v>-3.752924790831539</v>
       </c>
       <c r="C2" t="n">
-        <v>1.322193185972836e-13</v>
+        <v>3.688304651103259e-29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2074209984487073</v>
+        <v>0.369117751143327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02976977947393375</v>
+        <v>7.08838960232956e-57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.152835648221654</v>
+        <v>0.0004623406801814116</v>
       </c>
       <c r="C4" t="n">
-        <v>9.930075948017037e-48</v>
+        <v>3.330847910298624e-142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5912300809037061</v>
+        <v>0.02363974877184771</v>
       </c>
       <c r="C5" t="n">
-        <v>7.462268784799298e-13</v>
+        <v>2.074230462147176e-37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1445591126262009</v>
+        <v>-0.1631647027128305</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2041306980663218</v>
+        <v>0.001423950434553881</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04834298699457496</v>
+        <v>0.3353842892425922</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2987768789362298</v>
+        <v>4.331715675484712e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003937273469477537</v>
+        <v>0.03822797791146545</v>
       </c>
       <c r="C8" t="n">
-        <v>1.194189208680096e-95</v>
+        <v>0.7025260622911584</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02267624492504789</v>
+        <v>-6.027658209368937e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.210926057972045e-32</v>
+        <v>2.828364288267168e-27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1894227233409341</v>
+        <v>0.02094292997032578</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003079754613876842</v>
+        <v>0.1875482518452762</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.432482625887507</v>
+        <v>0.08799357526162516</v>
       </c>
       <c r="C11" t="n">
-        <v>1.855031761155656e-07</v>
+        <v>2.916751495056167e-21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1320276937049422</v>
+        <v>-0.03817712764795448</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1963758619997602</v>
+        <v>0.9253398165790578</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.085532310991119e-05</v>
+        <v>0.001959088652008213</v>
       </c>
       <c r="C13" t="n">
-        <v>1.114481769803092e-27</v>
+        <v>0.5064813206551362</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.992636061569999e-08</v>
+        <v>0.002555708484689029</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07885566065608125</v>
+        <v>0.1040965356536748</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01467557951099704</v>
+        <v>0.9954999286153285</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3639252551618383</v>
+        <v>3.932356761764038e-08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08373765627919173</v>
+        <v>-0.1565377284325191</v>
       </c>
       <c r="C16" t="n">
-        <v>1.007813619165769e-18</v>
+        <v>0.5274357856022163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1537415339168503</v>
+        <v>-1.889509706951414e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7096800087299429</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.003039438313212601</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3101218662446776</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.002907129393925452</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.06837783654134529</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.101703185691312</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.72003602631348e-09</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.4910052048716299</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.07328565459140715</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.876266707650708e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1164164899156138</v>
+        <v>0.423386699562326</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,270 +1930,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.517694716001823</v>
+        <v>-3.640428235078802</v>
       </c>
       <c r="C2" t="n">
-        <v>8.356541427420631e-13</v>
+        <v>1.199669611074011e-27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1843809038525137</v>
+        <v>0.3918224581503899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05409671679676763</v>
+        <v>1.372922639673779e-63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.138430775534172</v>
+        <v>0.0004472158723586536</v>
       </c>
       <c r="C4" t="n">
-        <v>2.152788307537234e-46</v>
+        <v>2.253626878545155e-133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6095700707452877</v>
+        <v>0.02381250296608728</v>
       </c>
       <c r="C5" t="n">
-        <v>2.155773108455283e-13</v>
+        <v>6.828926832555673e-38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2081949470724107</v>
+        <v>-0.1859333093725941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06929186506858007</v>
+        <v>0.0002922554935354134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07625730943742504</v>
+        <v>0.3362120336570302</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1034280112596334</v>
+        <v>3.610273528093351e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003788217087621808</v>
+        <v>0.02490686830798494</v>
       </c>
       <c r="C8" t="n">
-        <v>5.853692784532121e-89</v>
+        <v>0.8022965677940067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0226906758665781</v>
+        <v>-6.555429671707832e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.595306940232198e-32</v>
+        <v>8.318085950167896e-32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2128392580853803</v>
+        <v>0.01406331467672266</v>
       </c>
       <c r="C10" t="n">
-        <v>5.351979804790006e-05</v>
+        <v>0.3769384751325183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4292826538754849</v>
+        <v>0.08074107253784414</v>
       </c>
       <c r="C11" t="n">
-        <v>1.775051080713654e-07</v>
+        <v>3.173500350153417e-18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1117002590848628</v>
+        <v>0.1370453915952521</v>
       </c>
       <c r="C12" t="n">
-        <v>0.271332740788595</v>
+        <v>0.7381663791412352</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.447195236745344e-05</v>
+        <v>0.001908007898908057</v>
       </c>
       <c r="C13" t="n">
-        <v>8.500093104258061e-30</v>
+        <v>0.5178441039078703</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.411078175504857e-08</v>
+        <v>0.002812485486271265</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2185396819847405</v>
+        <v>0.07098833191914963</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007184976359301257</v>
+        <v>1.091727309299825</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6572862834425715</v>
+        <v>2.246446176735321e-09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07763616337891532</v>
+        <v>-0.2679641532840797</v>
       </c>
       <c r="C16" t="n">
-        <v>2.428769248506068e-16</v>
+        <v>0.2770203428670071</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07078140129418881</v>
+        <v>-3.144113759559206e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8648428854321656</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.003272539821033045</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2743608675042618</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.003168747285997595</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.04451393688071123</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.184402773941987</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.183758615449037e-10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.5438077548949909</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0466585676303628</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-4.707134842277157e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.05727083105056623</v>
+        <v>0.1848631744845468</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,270 +2174,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.362072203777437</v>
+        <v>-3.483265931510128</v>
       </c>
       <c r="C2" t="n">
-        <v>1.274073797155808e-11</v>
+        <v>8.248162266725585e-26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2475236440583245</v>
+        <v>0.366430206086676</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009271455271937153</v>
+        <v>8.534978444664388e-57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.145288682899481</v>
+        <v>0.0004615822671667289</v>
       </c>
       <c r="C4" t="n">
-        <v>1.476042001346669e-47</v>
+        <v>1.009636440372802e-139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5916609945503103</v>
+        <v>0.02472937253803222</v>
       </c>
       <c r="C5" t="n">
-        <v>6.095304692368172e-13</v>
+        <v>1.254571517956068e-40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1318091075211345</v>
+        <v>-0.1666182243548</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2440617993199393</v>
+        <v>0.001149535438995495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03691607482066203</v>
+        <v>0.2841501148662111</v>
       </c>
       <c r="C7" t="n">
-        <v>0.423601912868293</v>
+        <v>0.0004845237641097696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003948891986855107</v>
+        <v>-0.03457433467598027</v>
       </c>
       <c r="C8" t="n">
-        <v>3.402747943498677e-95</v>
+        <v>0.7288911048625437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02391307084206541</v>
+        <v>-6.355318290053077e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>9.690509862296186e-36</v>
+        <v>6.464463058633066e-30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1955686010613041</v>
+        <v>0.0171570916714297</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001983131536484248</v>
+        <v>0.2794134036032138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3789752276942041</v>
+        <v>0.08109761520308811</v>
       </c>
       <c r="C11" t="n">
-        <v>4.149995940095885e-06</v>
+        <v>2.180879047785358e-18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05694735207178196</v>
+        <v>-0.19821589632589</v>
       </c>
       <c r="C12" t="n">
-        <v>0.57568272620797</v>
+        <v>0.6270284589108647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.176976681052966e-05</v>
+        <v>0.00116892142524829</v>
       </c>
       <c r="C13" t="n">
-        <v>3.726310672657367e-28</v>
+        <v>0.6916688524263481</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.358557374059802e-08</v>
+        <v>0.001939404633149893</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2319354764674618</v>
+        <v>0.2092135145268854</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00923678533694103</v>
+        <v>1.026646444608378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5668589696961641</v>
+        <v>1.600356108328937e-08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07823652980607802</v>
+        <v>-0.2905622786388559</v>
       </c>
       <c r="C16" t="n">
-        <v>1.302677956927041e-16</v>
+        <v>0.2417266068005893</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2352543329151085</v>
+        <v>-3.321059974212898e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.569372391778695</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.001984636674523983</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5067835306480298</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.002250933196397715</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1496115873461273</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.136512154202469</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9.236485515162034e-10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.5441344733765644</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.04716696400625704</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-4.754431931876318e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.05648816236292639</v>
+        <v>0.1633191363123364</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,270 +2418,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.350224540254815</v>
+        <v>-3.485641139346919</v>
       </c>
       <c r="C2" t="n">
-        <v>3.682918283227805e-11</v>
+        <v>5.596258026692877e-25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2106781986151265</v>
+        <v>0.360607633881795</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02682813194126297</v>
+        <v>5.513059102028446e-55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.124988722640136</v>
+        <v>0.000458314527908006</v>
       </c>
       <c r="C4" t="n">
-        <v>9.10078838900761e-46</v>
+        <v>3.026492986395668e-140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6224642695633964</v>
+        <v>0.02472523588888792</v>
       </c>
       <c r="C5" t="n">
-        <v>5.451276167441504e-14</v>
+        <v>2.196392875301683e-40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2191140334848895</v>
+        <v>-0.1879041672410504</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05376369275348625</v>
+        <v>0.0002435791850403376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04338652435821518</v>
+        <v>0.3569123759545642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3472534783235236</v>
+        <v>1.261185773170587e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003889177972150081</v>
+        <v>0.01228444479062414</v>
       </c>
       <c r="C8" t="n">
-        <v>1.027989673935773e-93</v>
+        <v>0.90210483918788</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02377742782848028</v>
+        <v>-6.477455503608198e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>4.522706422038126e-35</v>
+        <v>1.291947847970263e-30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2186563946819869</v>
+        <v>0.0259478110232934</v>
       </c>
       <c r="C10" t="n">
-        <v>3.170646588726005e-05</v>
+        <v>0.107620357602423</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4485465522692256</v>
+        <v>0.08366794898404083</v>
       </c>
       <c r="C11" t="n">
-        <v>5.455463569660104e-08</v>
+        <v>4.408555020906041e-19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09307734557719594</v>
+        <v>-0.00146698433833662</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3607523266536476</v>
+        <v>0.9971463577818691</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.680608983786804e-05</v>
+        <v>0.0006374143054978286</v>
       </c>
       <c r="C13" t="n">
-        <v>5.391939077049051e-31</v>
+        <v>0.8294388458225628</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.247583073741629e-08</v>
+        <v>0.001679045249390812</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04764302120796059</v>
+        <v>0.2896947766333057</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01830146878632439</v>
+        <v>0.9269444422389764</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2642123708315004</v>
+        <v>3.586919073304753e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0799178260318017</v>
+        <v>-0.2622566946746264</v>
       </c>
       <c r="C16" t="n">
-        <v>6.15714538214501e-17</v>
+        <v>0.2909751950466847</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06567846358078092</v>
+        <v>-1.982135409775613e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8744679530296671</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.001653802519253828</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5820931516343469</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.002089119998406302</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1941241407375178</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.037949739644692</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.463527604377194e-08</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.6171726778086072</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.02491137282066721</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-4.041911927008075e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1027893865031599</v>
+        <v>0.4034047399893743</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Berlin.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Berlin.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.533324052965383</v>
+        <v>-3.545648940071025</v>
       </c>
       <c r="C2" t="n">
-        <v>3.55514492112994e-26</v>
+        <v>2.487594162072939e-26</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.351786713859461</v>
+        <v>0.3520141109558162</v>
       </c>
       <c r="C3" t="n">
-        <v>5.690913827445354e-53</v>
+        <v>4.87396513769174e-53</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004611509111203567</v>
+        <v>0.0004610461390670031</v>
       </c>
       <c r="C4" t="n">
-        <v>5.364655872128642e-141</v>
+        <v>6.618858119768378e-141</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02382313725717244</v>
+        <v>0.02380349420399408</v>
       </c>
       <c r="C5" t="n">
-        <v>3.958843329611365e-38</v>
+        <v>4.653028763919449e-38</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1853261271583363</v>
+        <v>-0.185126368899218</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002927061231582473</v>
+        <v>0.000297215713586129</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3364043153678296</v>
+        <v>0.3365682497920061</v>
       </c>
       <c r="C7" t="n">
-        <v>3.069978423742129e-05</v>
+        <v>3.04305071882735e-05</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02224598320822329</v>
+        <v>0.02250887632712114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8213978430950863</v>
+        <v>0.8193167814848733</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.93543268514797e-05</v>
+        <v>-0.005963196934289616</v>
       </c>
       <c r="C9" t="n">
-        <v>1.802008805113154e-26</v>
+        <v>1.311439487400264e-26</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02087034036409348</v>
+        <v>0.02128961466167634</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1931850355238497</v>
+        <v>0.1843410621503014</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08501578559557886</v>
+        <v>0.08651057837054538</v>
       </c>
       <c r="C11" t="n">
-        <v>7.202611337630758e-20</v>
+        <v>4.633398974923113e-20</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2523737541706472</v>
+        <v>-0.002786038873128057</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5337288750930662</v>
+        <v>0.490845175082084</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0008121193631739517</v>
+        <v>0.0005334239898064053</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7826705616658465</v>
+        <v>0.8556751586850719</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002390380830052596</v>
+        <v>0.002361977602709627</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1278004437845478</v>
+        <v>0.1327812877710588</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9063054678643254</v>
+        <v>0.00891495276153997</v>
       </c>
       <c r="C15" t="n">
-        <v>5.618524932229857e-07</v>
+        <v>8.161742800526065e-07</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2371679897050664</v>
+        <v>-0.002620165376914655</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3358345773473149</v>
+        <v>0.2875403232773631</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.540090587371802e-05</v>
+        <v>-0.001094405707813372</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2868032974870133</v>
+        <v>0.4895251329521846</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.920373305757717</v>
+        <v>-3.931210958789784</v>
       </c>
       <c r="C2" t="n">
-        <v>4.251029338172172e-31</v>
+        <v>3.143124690754763e-31</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3767817676338718</v>
+        <v>0.3769242530516969</v>
       </c>
       <c r="C3" t="n">
-        <v>2.577808783747928e-59</v>
+        <v>2.346948415191259e-59</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004540370783187427</v>
+        <v>0.0004539001583797219</v>
       </c>
       <c r="C4" t="n">
-        <v>1.078642514464362e-136</v>
+        <v>1.439719926479928e-136</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02235746387309206</v>
+        <v>0.02233418471719311</v>
       </c>
       <c r="C5" t="n">
-        <v>1.073681576567995e-33</v>
+        <v>1.285891150250077e-33</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1597660903893671</v>
+        <v>-0.1597593669317672</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001919886180430425</v>
+        <v>0.00192146116463418</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4290900921125082</v>
+        <v>0.4292289589496253</v>
       </c>
       <c r="C7" t="n">
-        <v>1.451486468260504e-07</v>
+        <v>1.440555164063103e-07</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1664572548437182</v>
+        <v>0.1667402075959885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09418815803831102</v>
+        <v>0.09363110678324892</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.299249685118886e-05</v>
+        <v>-0.006327712006942841</v>
       </c>
       <c r="C9" t="n">
-        <v>4.727632505842486e-29</v>
+        <v>3.434140446168277e-29</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03135737659792323</v>
+        <v>0.03169595737609726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05284599924325644</v>
+        <v>0.05037733912144545</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09184634495514739</v>
+        <v>0.09337064630183151</v>
       </c>
       <c r="C11" t="n">
-        <v>1.082149943872433e-22</v>
+        <v>7.34905860367969e-23</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.002442508978264108</v>
+        <v>-0.0002419194437621164</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9952590438182174</v>
+        <v>0.9529247590794735</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001227838500611436</v>
+        <v>0.0009922677342824565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6786960152055173</v>
+        <v>0.7368088802082864</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002875410576018164</v>
+        <v>0.002847041445631751</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06919116818111493</v>
+        <v>0.07226910174785507</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.195584554828532</v>
+        <v>0.01181678097777594</v>
       </c>
       <c r="C15" t="n">
-        <v>6.590702818725344e-11</v>
+        <v>9.89355788365781e-11</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1536252366097313</v>
+        <v>-0.001773255136614158</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5352433962755294</v>
+        <v>0.4739018533783353</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.264158372991917e-05</v>
+        <v>-0.0002802186712980823</v>
       </c>
       <c r="C17" t="n">
-        <v>0.59716577674549</v>
+        <v>0.8598855232227333</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.683890308082755</v>
+        <v>-3.697034015767221</v>
       </c>
       <c r="C2" t="n">
-        <v>4.381246128709178e-28</v>
+        <v>2.966847528822587e-28</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3745568863215229</v>
+        <v>0.3749181393346325</v>
       </c>
       <c r="C3" t="n">
-        <v>1.103310673671307e-58</v>
+        <v>8.451449164382177e-59</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004548118203587691</v>
+        <v>0.0004546207761481349</v>
       </c>
       <c r="C4" t="n">
-        <v>5.591304957155898e-137</v>
+        <v>8.016531191957387e-137</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02538468725694294</v>
+        <v>0.02536711406842333</v>
       </c>
       <c r="C5" t="n">
-        <v>1.049571022064968e-42</v>
+        <v>1.218564882588334e-42</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1653606546093296</v>
+        <v>-0.1652819091831715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001299300897453104</v>
+        <v>0.001306424769181069</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3679779227407804</v>
+        <v>0.3680976421823058</v>
       </c>
       <c r="C7" t="n">
-        <v>7.100085431396329e-06</v>
+        <v>7.051529821702796e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04892875567495625</v>
+        <v>0.04917383449926509</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6222616782124526</v>
+        <v>0.6205025244026869</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.093822946190964e-05</v>
+        <v>-0.00612111221639612</v>
       </c>
       <c r="C9" t="n">
-        <v>1.053633696009847e-27</v>
+        <v>7.822854499575886e-28</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01596779060795789</v>
+        <v>0.01639396104963817</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3196000525846181</v>
+        <v>0.3068146084115264</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08969527451797561</v>
+        <v>0.09130154825809252</v>
       </c>
       <c r="C11" t="n">
-        <v>6.726339395002035e-22</v>
+        <v>3.627969665553202e-22</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1482302517915811</v>
+        <v>-0.001775039004883951</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7156681025339529</v>
+        <v>0.6617439735752154</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003595470669966957</v>
+        <v>0.003283836202320329</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2258773944789335</v>
+        <v>0.2667480712947368</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001614257051039815</v>
+        <v>0.00158408706183854</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3021499626676467</v>
+        <v>0.3117875195946092</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8536035181640825</v>
+        <v>0.008374750371520056</v>
       </c>
       <c r="C15" t="n">
-        <v>2.630494577348794e-06</v>
+        <v>3.858224588899684e-06</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.239177402771003</v>
+        <v>-0.002659883436921729</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3305297328545369</v>
+        <v>0.278754181403212</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.81115585093782e-05</v>
+        <v>-0.001229521998733432</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2348989625258994</v>
+        <v>0.4320721557646506</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.561846767487866</v>
+        <v>-3.572291562703919</v>
       </c>
       <c r="C2" t="n">
-        <v>2.442496157832146e-26</v>
+        <v>1.818760338930359e-26</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3683581269010507</v>
+        <v>0.3685553385108625</v>
       </c>
       <c r="C3" t="n">
-        <v>1.213625665373624e-56</v>
+        <v>1.054264933962691e-56</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004684240891676795</v>
+        <v>0.0004682765245834942</v>
       </c>
       <c r="C4" t="n">
-        <v>9.433979061752414e-143</v>
+        <v>1.299230270120169e-142</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0233654240546107</v>
+        <v>0.0233416485323175</v>
       </c>
       <c r="C5" t="n">
-        <v>1.423669328923007e-36</v>
+        <v>1.719949673897372e-36</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1822693906681991</v>
+        <v>-0.1821476862497746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003909593889692053</v>
+        <v>0.0003945386091611737</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3423466700554642</v>
+        <v>0.3423690620007603</v>
       </c>
       <c r="C7" t="n">
-        <v>2.689294736588924e-05</v>
+        <v>2.686399013887237e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09276172591269169</v>
+        <v>0.09302074086717922</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3506921085708877</v>
+        <v>0.3493325194673352</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.01776127065512e-05</v>
+        <v>-0.006045730422832296</v>
       </c>
       <c r="C9" t="n">
-        <v>7.616074731897561e-27</v>
+        <v>5.533376441825454e-27</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02880553654179512</v>
+        <v>0.02915876531951126</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07476517933856736</v>
+        <v>0.07130069760010176</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09044018879079835</v>
+        <v>0.09196017365360921</v>
       </c>
       <c r="C11" t="n">
-        <v>4.369365156828721e-22</v>
+        <v>2.720339633340032e-22</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07468710572110818</v>
+        <v>-0.0009714827942773278</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8557721134425655</v>
+        <v>0.8125980402113567</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0004734255647408862</v>
+        <v>0.0002205699478175838</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8733154915766753</v>
+        <v>0.9405631308159451</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001455358489850035</v>
+        <v>0.001423454669431036</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3538134979557617</v>
+        <v>0.3650041543140187</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9536234251885649</v>
+        <v>0.009396661346022238</v>
       </c>
       <c r="C15" t="n">
-        <v>1.723093261332686e-07</v>
+        <v>2.468707927250398e-07</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.245316405342397</v>
+        <v>-0.002698395033468859</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3224222894613438</v>
+        <v>0.2759910621494223</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.576589261938476e-05</v>
+        <v>-0.0004802497038735344</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5047978268062427</v>
+        <v>0.7592142475156978</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.874564858569618</v>
+        <v>-3.886233862368893</v>
       </c>
       <c r="C2" t="n">
-        <v>4.493232141656756e-30</v>
+        <v>3.30254381821068e-30</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3653811830738002</v>
+        <v>0.3655526987226158</v>
       </c>
       <c r="C3" t="n">
-        <v>3.131868675699649e-56</v>
+        <v>2.784102018300346e-56</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004519799279906286</v>
+        <v>0.0004518429760887118</v>
       </c>
       <c r="C4" t="n">
-        <v>1.805267888325305e-136</v>
+        <v>2.35417689431159e-136</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02320622299177092</v>
+        <v>0.02317767691950615</v>
       </c>
       <c r="C5" t="n">
-        <v>8.591343308083003e-36</v>
+        <v>1.071293287289926e-35</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1738877885218998</v>
+        <v>-0.1739952936089589</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000685621874241756</v>
+        <v>0.0006810411183694943</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3480682271614989</v>
+        <v>0.3480047137697652</v>
       </c>
       <c r="C7" t="n">
-        <v>2.071377042042172e-05</v>
+        <v>2.08066444010831e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03458514422344615</v>
+        <v>0.03471447649492539</v>
       </c>
       <c r="C8" t="n">
-        <v>0.72915014360485</v>
+        <v>0.72817699236745</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.561260962364481e-05</v>
+        <v>-0.006591003273293055</v>
       </c>
       <c r="C9" t="n">
-        <v>1.229667544773307e-31</v>
+        <v>8.515572939841798e-32</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02537739493774098</v>
+        <v>0.02570559223393335</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1126460826771082</v>
+        <v>0.1081464053687708</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08532619350999464</v>
+        <v>0.08697274674691019</v>
       </c>
       <c r="C11" t="n">
-        <v>6.628744861092181e-20</v>
+        <v>3.620310715108666e-20</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3698548540429065</v>
+        <v>-0.003907100103958551</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3642606510892304</v>
+        <v>0.3365442317942882</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002680420826398439</v>
+        <v>0.002430202666884987</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3653293377766651</v>
+        <v>0.4097377519057693</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.004056590125878235</v>
+        <v>0.0040307830707399</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01214268908532688</v>
+        <v>0.01280158826041511</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.077411869376586</v>
+        <v>0.01063069810183269</v>
       </c>
       <c r="C15" t="n">
-        <v>4.262160385655645e-09</v>
+        <v>6.387569057740307e-09</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1938000742772091</v>
+        <v>-0.002184915460971665</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4319095940759154</v>
+        <v>0.3752978455098127</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.014725221180008e-05</v>
+        <v>-8.271285754799376e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6660888228675934</v>
+        <v>0.9576573621779915</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.752924790831539</v>
+        <v>-3.770117456393218</v>
       </c>
       <c r="C2" t="n">
-        <v>3.688304651103259e-29</v>
+        <v>2.270093066027407e-29</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.369117751143327</v>
+        <v>0.3693744603328718</v>
       </c>
       <c r="C3" t="n">
-        <v>7.08838960232956e-57</v>
+        <v>5.917856220674418e-57</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004623406801814116</v>
+        <v>0.0004621578362033217</v>
       </c>
       <c r="C4" t="n">
-        <v>3.330847910298624e-142</v>
+        <v>4.683935892598561e-142</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02363974877184771</v>
+        <v>0.02360628546752088</v>
       </c>
       <c r="C5" t="n">
-        <v>2.074230462147176e-37</v>
+        <v>2.667672776754386e-37</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1631647027128305</v>
+        <v>-0.1632506157516266</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001423950434553881</v>
+        <v>0.001416496903645736</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3353842892425922</v>
+        <v>0.3354866764659366</v>
       </c>
       <c r="C7" t="n">
-        <v>4.331715675484712e-05</v>
+        <v>4.311997775569263e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03822797791146545</v>
+        <v>0.03854846023129187</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7025260622911584</v>
+        <v>0.7001435998691823</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.027658209368937e-05</v>
+        <v>-0.006069602981224537</v>
       </c>
       <c r="C9" t="n">
-        <v>2.828364288267168e-27</v>
+        <v>1.58771260811172e-27</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02094292997032578</v>
+        <v>0.0214257997567806</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1875482518452762</v>
+        <v>0.1776661917808838</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08799357526162516</v>
+        <v>0.09025683522109355</v>
       </c>
       <c r="C11" t="n">
-        <v>2.916751495056167e-21</v>
+        <v>8.570830018979054e-22</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03817712764795448</v>
+        <v>-0.0007023465441571482</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9253398165790578</v>
+        <v>0.8627097631050704</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001959088652008213</v>
+        <v>0.001596158145071774</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5064813206551362</v>
+        <v>0.5868462313626412</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002555708484689029</v>
+        <v>0.002520828181928565</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1040965356536748</v>
+        <v>0.1095111155201488</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9954999286153285</v>
+        <v>0.009755567301250845</v>
       </c>
       <c r="C15" t="n">
-        <v>3.932356761764038e-08</v>
+        <v>6.862009571664344e-08</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1565377284325191</v>
+        <v>-0.001920913932781053</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5274357856022163</v>
+        <v>0.4376979401014344</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.889509706951414e-05</v>
+        <v>-0.0004164499311458632</v>
       </c>
       <c r="C17" t="n">
-        <v>0.423386699562326</v>
+        <v>0.7896989583055392</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.640428235078802</v>
+        <v>-3.654101169358767</v>
       </c>
       <c r="C2" t="n">
-        <v>1.199669611074011e-27</v>
+        <v>8.041653044557138e-28</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3918224581503899</v>
+        <v>0.3920811779957414</v>
       </c>
       <c r="C3" t="n">
-        <v>1.372922639673779e-63</v>
+        <v>1.145184053354524e-63</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004472158723586536</v>
+        <v>0.0004471444367433029</v>
       </c>
       <c r="C4" t="n">
-        <v>2.253626878545155e-133</v>
+        <v>2.784727316758636e-133</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02381250296608728</v>
+        <v>0.02378595038209758</v>
       </c>
       <c r="C5" t="n">
-        <v>6.828926832555673e-38</v>
+        <v>8.336440246347285e-38</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1859333093725941</v>
+        <v>-0.1859906965644867</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002922554935354134</v>
+        <v>0.0002910480637565789</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3362120336570302</v>
+        <v>0.3363584871258304</v>
       </c>
       <c r="C7" t="n">
-        <v>3.610273528093351e-05</v>
+        <v>3.581882524537812e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02490686830798494</v>
+        <v>0.02528595873092224</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8022965677940067</v>
+        <v>0.7993380656396205</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.555429671707832e-05</v>
+        <v>-0.006586055889600598</v>
       </c>
       <c r="C9" t="n">
-        <v>8.318085950167896e-32</v>
+        <v>5.768854622397073e-32</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01406331467672266</v>
+        <v>0.01449959457395943</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3769384751325183</v>
+        <v>0.3622318215829123</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08074107253784414</v>
+        <v>0.08239102689033607</v>
       </c>
       <c r="C11" t="n">
-        <v>3.173500350153417e-18</v>
+        <v>1.672779956551573e-18</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1370453915952521</v>
+        <v>0.001056841656257758</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7381663791412352</v>
+        <v>0.7959673306327076</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001908007898908057</v>
+        <v>0.00158948692852659</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5178441039078703</v>
+        <v>0.588718811589219</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002812485486271265</v>
+        <v>0.002783180713841453</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07098833191914963</v>
+        <v>0.07429990509357592</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.091727309299825</v>
+        <v>0.01074423877191167</v>
       </c>
       <c r="C15" t="n">
-        <v>2.246446176735321e-09</v>
+        <v>3.673694826674196e-09</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2679641532840797</v>
+        <v>-0.00296277268075349</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2770203428670071</v>
+        <v>0.228999808980721</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.144113759559206e-05</v>
+        <v>-0.001415762014310654</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1848631744845468</v>
+        <v>0.3675814716148694</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.483265931510128</v>
+        <v>-3.498077610679207</v>
       </c>
       <c r="C2" t="n">
-        <v>8.248162266725585e-26</v>
+        <v>5.419069787253243e-26</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.366430206086676</v>
+        <v>0.3667131919551629</v>
       </c>
       <c r="C3" t="n">
-        <v>8.534978444664388e-57</v>
+        <v>7.058109544917535e-57</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004615822671667289</v>
+        <v>0.0004614549030687266</v>
       </c>
       <c r="C4" t="n">
-        <v>1.009636440372802e-139</v>
+        <v>1.316750235633483e-139</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02472937253803222</v>
+        <v>0.02470012186312025</v>
       </c>
       <c r="C5" t="n">
-        <v>1.254571517956068e-40</v>
+        <v>1.574920505589339e-40</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1666182243548</v>
+        <v>-0.1664787396695701</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001149535438995495</v>
+        <v>0.001160594326337282</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2841501148662111</v>
+        <v>0.2843056170845056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004845237641097696</v>
+        <v>0.000481060239293053</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03457433467598027</v>
+        <v>-0.03443840935083102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7288911048625437</v>
+        <v>0.7299025071265516</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.355318290053077e-05</v>
+        <v>-0.006388523903023175</v>
       </c>
       <c r="C9" t="n">
-        <v>6.464463058633066e-30</v>
+        <v>4.261250428598895e-30</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0171570916714297</v>
+        <v>0.01770962910277468</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2794134036032138</v>
+        <v>0.26413065716346</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08109761520308811</v>
+        <v>0.08297563369993925</v>
       </c>
       <c r="C11" t="n">
-        <v>2.180879047785358e-18</v>
+        <v>8.976527103290084e-19</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.19821589632589</v>
+        <v>-0.002331696704864678</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6270284589108647</v>
+        <v>0.5663642782670664</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00116892142524829</v>
+        <v>0.0008021901079614631</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6916688524263481</v>
+        <v>0.7846146015544112</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001939404633149893</v>
+        <v>0.001902841050328314</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2092135145268854</v>
+        <v>0.2185010503560771</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.026646444608378</v>
+        <v>0.01007565971031401</v>
       </c>
       <c r="C15" t="n">
-        <v>1.600356108328937e-08</v>
+        <v>2.704781052580901e-08</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2905622786388559</v>
+        <v>-0.00322300106128</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2417266068005893</v>
+        <v>0.1937883860103444</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.321059974212898e-05</v>
+        <v>-0.001451191664248387</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1633191363123364</v>
+        <v>0.3571615236776389</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.485641139346919</v>
+        <v>-3.48867305016919</v>
       </c>
       <c r="C2" t="n">
-        <v>5.596258026692877e-25</v>
+        <v>5.034959309737173e-25</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.360607633881795</v>
+        <v>0.3607456288237763</v>
       </c>
       <c r="C3" t="n">
-        <v>5.513059102028446e-55</v>
+        <v>4.953337923030729e-55</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000458314527908006</v>
+        <v>0.0004583223030364571</v>
       </c>
       <c r="C4" t="n">
-        <v>3.026492986395668e-140</v>
+        <v>3.310603486273908e-140</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02472523588888792</v>
+        <v>0.02472852082846579</v>
       </c>
       <c r="C5" t="n">
-        <v>2.196392875301683e-40</v>
+        <v>2.217651711531811e-40</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1879041672410504</v>
+        <v>-0.1877551041726632</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002435791850403376</v>
+        <v>0.0002463400135981781</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3569123759545642</v>
+        <v>0.3569431889375886</v>
       </c>
       <c r="C7" t="n">
-        <v>1.261185773170587e-05</v>
+        <v>1.258809935214996e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01228444479062414</v>
+        <v>0.012235121838695</v>
       </c>
       <c r="C8" t="n">
-        <v>0.90210483918788</v>
+        <v>0.9024942325968894</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.477455503608198e-05</v>
+        <v>-0.006480521700749774</v>
       </c>
       <c r="C9" t="n">
-        <v>1.291947847970263e-30</v>
+        <v>1.502344105771814e-30</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0259478110232934</v>
+        <v>0.02608853159147571</v>
       </c>
       <c r="C10" t="n">
-        <v>0.107620357602423</v>
+        <v>0.10557241240229</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08366794898404083</v>
+        <v>0.08391320399955852</v>
       </c>
       <c r="C11" t="n">
-        <v>4.408555020906041e-19</v>
+        <v>8.722853224499306e-19</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.00146698433833662</v>
+        <v>-0.0001330798477663614</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9971463577818691</v>
+        <v>0.974043914610667</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006374143054978286</v>
+        <v>0.0005281099895390703</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8294388458225628</v>
+        <v>0.8576991930301592</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001679045249390812</v>
+        <v>0.001670702106158466</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2896947766333057</v>
+        <v>0.2921305784601366</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9269444422389764</v>
+        <v>0.009223828869291543</v>
       </c>
       <c r="C15" t="n">
-        <v>3.586919073304753e-07</v>
+        <v>3.886257050991782e-07</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2622566946746264</v>
+        <v>-0.002688956956625242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2909751950466847</v>
+        <v>0.2785967775565316</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.982135409775613e-05</v>
+        <v>-0.001165746703607005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4034047399893743</v>
+        <v>0.4576415212265181</v>
       </c>
     </row>
   </sheetData>
